--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
